--- a/replication/results/tableA1_panel_police_report_only.xlsx
+++ b/replication/results/tableA1_panel_police_report_only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>eq_mix</t>
   </si>
@@ -37,43 +37,52 @@
     <t>['all']</t>
   </si>
   <si>
-    <t>(0.25)</t>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>['hour']</t>
   </si>
   <si>
     <t>(0.24)</t>
   </si>
   <si>
-    <t>['hour']</t>
-  </si>
-  <si>
-    <t>(0.2)</t>
+    <t>(0.18)</t>
   </si>
   <si>
     <t>['year', 'hour']</t>
   </si>
   <si>
-    <t>(0.18)</t>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
   </si>
   <si>
     <t>['year', 'weekend', 'hour']</t>
   </si>
   <si>
+    <t>(0.26)</t>
+  </si>
+  <si>
+    <t>(0.21)</t>
+  </si>
+  <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.38)</t>
-  </si>
-  <si>
-    <t>(0.3)</t>
+    <t>(0.39)</t>
+  </si>
+  <si>
+    <t>(0.32)</t>
   </si>
   <si>
     <t>['year', 'state', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.44)</t>
-  </si>
-  <si>
-    <t>(0.33)</t>
+    <t>(0.46)</t>
+  </si>
+  <si>
+    <t>(0.31)</t>
   </si>
 </sst>
 </file>
@@ -465,19 +474,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -511,19 +520,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -554,22 +563,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/replication/results/tableA1_panel_police_report_only.xlsx
+++ b/replication/results/tableA1_panel_police_report_only.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>eq_mix</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+  <si>
+    <t>drink_def</t>
   </si>
   <si>
     <t>theta</t>
@@ -31,58 +31,76 @@
     <t>lambda_se</t>
   </si>
   <si>
+    <t>proportion</t>
+  </si>
+  <si>
+    <t>proportion_se</t>
+  </si>
+  <si>
     <t>total_dof</t>
   </si>
   <si>
     <t>['all']</t>
   </si>
   <si>
-    <t>(0.22)</t>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(0.015)</t>
   </si>
   <si>
     <t>['hour']</t>
   </si>
   <si>
-    <t>(0.24)</t>
+    <t>(0.23)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(0.010)</t>
+  </si>
+  <si>
+    <t>['year', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.27)</t>
+  </si>
+  <si>
+    <t>(0.2)</t>
+  </si>
+  <si>
+    <t>['year', 'weekend', 'hour']</t>
   </si>
   <si>
     <t>(0.18)</t>
   </si>
   <si>
-    <t>['year', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
-    <t>(0.19)</t>
-  </si>
-  <si>
-    <t>['year', 'weekend', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.26)</t>
-  </si>
-  <si>
-    <t>(0.21)</t>
+    <t>(0.008)</t>
   </si>
   <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.39)</t>
+    <t>(0.38)</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>['year', 'state', 'weekend', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.47)</t>
   </si>
   <si>
     <t>(0.32)</t>
-  </si>
-  <si>
-    <t>['year', 'state', 'weekend', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.46)</t>
-  </si>
-  <si>
-    <t>(0.31)</t>
   </si>
 </sst>
 </file>
@@ -440,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -517,22 +535,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -563,22 +581,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -586,21 +604,67 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.332</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>0.292</v>
+      </c>
+      <c r="E7">
+        <v>0.283</v>
+      </c>
+      <c r="F7">
+        <v>0.213</v>
+      </c>
+      <c r="G7">
+        <v>0.201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <v>101</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>918</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>1467</v>
       </c>
     </row>

--- a/replication/results/tableA1_panel_police_report_only.xlsx
+++ b/replication/results/tableA1_panel_police_report_only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>drink_def</t>
   </si>
@@ -43,49 +43,46 @@
     <t>['all']</t>
   </si>
   <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(0.015)</t>
+  </si>
+  <si>
+    <t>['hour']</t>
+  </si>
+  <si>
+    <t>(0.21)</t>
+  </si>
+  <si>
+    <t>(0.17)</t>
+  </si>
+  <si>
+    <t>(0.009)</t>
+  </si>
+  <si>
+    <t>['year', 'hour']</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(0.008)</t>
+  </si>
+  <si>
+    <t>['year', 'weekend', 'hour']</t>
+  </si>
+  <si>
     <t>(0.25)</t>
   </si>
   <si>
-    <t>(0.24)</t>
-  </si>
-  <si>
-    <t>(0.015)</t>
-  </si>
-  <si>
-    <t>['hour']</t>
-  </si>
-  <si>
-    <t>(0.23)</t>
-  </si>
-  <si>
     <t>(0.19)</t>
   </si>
   <si>
-    <t>(0.010)</t>
-  </si>
-  <si>
-    <t>['year', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.27)</t>
-  </si>
-  <si>
-    <t>(0.2)</t>
-  </si>
-  <si>
-    <t>['year', 'weekend', 'hour']</t>
-  </si>
-  <si>
-    <t>(0.18)</t>
-  </si>
-  <si>
-    <t>(0.008)</t>
-  </si>
-  <si>
     <t>['year', 'state', 'hour']</t>
   </si>
   <si>
-    <t>(0.38)</t>
+    <t>(0.37)</t>
   </si>
   <si>
     <t>(0.29)</t>
@@ -97,10 +94,10 @@
     <t>['year', 'state', 'weekend', 'hour']</t>
   </si>
   <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
-    <t>(0.32)</t>
+    <t>(0.44)</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
   </si>
 </sst>
 </file>
@@ -492,19 +489,19 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -538,19 +535,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -581,22 +578,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -627,22 +624,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
